--- a/docu/1.2_HW.xlsx
+++ b/docu/1.2_HW.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceblok\PycharmProjects\AnalyticalReasoning\docu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ycosk\PycharmProjects\AnalyticalReasoning\docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0434A2-4882-4337-83BF-DFAD84AB4B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B56729-F4F3-4084-AE13-E1AC995F7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{E89664DF-E45B-4AF0-877B-0FC9DD5185B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E89664DF-E45B-4AF0-877B-0FC9DD5185B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Opgave 2.4</t>
   </si>
@@ -96,13 +96,99 @@
   </si>
   <si>
     <t>p ∧ q</t>
+  </si>
+  <si>
+    <t>Opgave 2.5</t>
+  </si>
+  <si>
+    <t>b. (e ∧ h) ↔ b en ((e ∧ h) ∧ b) ∨ (¬(e ∧ h) ∧ ¬b)</t>
+  </si>
+  <si>
+    <t>(St-2.3.2: 4)</t>
+  </si>
+  <si>
+    <t>(e ∧ h) ↔ b ≡ ((e ∧ h) ∧ b) ∨ (¬(e ∧ h) ∧ ¬b)</t>
+  </si>
+  <si>
+    <t>c. (a ∨ (b → a)) → z en (a → z) ∧ ((b → a) → z)</t>
+  </si>
+  <si>
+    <t>(a ∨ (b → a)) → z ≡ (a → z) ∧ ((b → a) → z)</t>
+  </si>
+  <si>
+    <t>(St-2.3.2: 13)</t>
+  </si>
+  <si>
+    <t>d. (p ∧ ¬e) ∨ (¬e → q) en (¬e → q) ∨ (p ∧ ¬e)</t>
+  </si>
+  <si>
+    <t>(p ∧ ¬e) ∨ (¬e → q) en (¬e → q) ∨ (p ∧ ¬e)</t>
+  </si>
+  <si>
+    <t>(St-2.3.2: 2)</t>
+  </si>
+  <si>
+    <t>e. a ↔ (b → a) en a ↔ (¬a → ¬b)</t>
+  </si>
+  <si>
+    <t>a ↔ (b → a) en a ↔ (¬a → ¬b)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(h ∧ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(f ∨ z)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) → q</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>h → (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(f ∨ z)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → q)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +208,13 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,12 +283,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -232,6 +322,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -548,64 +645,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986F7309-09BF-49BA-81C9-EFCEBE18C9D5}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -621,26 +718,26 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -656,26 +753,26 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -691,26 +788,26 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -726,26 +823,26 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -761,26 +858,26 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -796,26 +893,26 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -831,26 +928,26 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -866,26 +963,26 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -901,26 +998,26 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -936,26 +1033,26 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -971,26 +1068,26 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1006,26 +1103,26 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="10">
-        <v>1</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
-      <c r="L15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1041,26 +1138,26 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="10">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1076,26 +1173,26 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="10">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1111,26 +1208,26 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1146,63 +1243,63 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="11">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1</v>
-      </c>
-      <c r="L19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1216,20 +1313,20 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="10">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1243,20 +1340,20 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1270,20 +1367,20 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1297,20 +1394,20 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1324,20 +1421,20 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1351,20 +1448,20 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1378,20 +1475,20 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1405,111 +1502,111 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="11">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1523,4 +1620,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548BC5FF-B9C0-43F2-8EEF-27DBF064248A}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>